--- a/backend/exports/202311.xlsx
+++ b/backend/exports/202311.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -601,9 +601,174 @@
         <v>00:54</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C19" t="str">
+        <v>00:02</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B20" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C20" t="str">
+        <v>00:02</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B21" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C21" t="str">
+        <v>00:07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C22" t="str">
+        <v>00:04</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C23" t="str">
+        <v>00:02</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B24" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C24" t="str">
+        <v>00:47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B25" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C25" t="str">
+        <v>00:01</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B26" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C26" t="str">
+        <v>00:01</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B27" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C27" t="str">
+        <v>00:01</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B28" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C28" t="str">
+        <v>00:02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C29" t="str">
+        <v>00:02</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C30" t="str">
+        <v>00:02</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2024627</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C31" t="str">
+        <v>00:02</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2024628</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0/100</v>
+      </c>
+      <c r="C32" t="str">
+        <v>00:05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>202473</v>
+      </c>
+      <c r="B33" t="str">
+        <v>11/100</v>
+      </c>
+      <c r="C33" t="str">
+        <v>00:25</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C33"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/backend/exports/202311.xlsx
+++ b/backend/exports/202311.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -766,9 +766,20 @@
         <v>00:25</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>202474</v>
+      </c>
+      <c r="B34" t="str">
+        <v>100/100</v>
+      </c>
+      <c r="C34" t="str">
+        <v>03:14</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C33"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C34"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/backend/exports/202311.xlsx
+++ b/backend/exports/202311.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="姜ハンビョル200556" sheetId="1" r:id="rId1"/>
     <sheet name="姜デゥビョル220556" sheetId="2" r:id="rId2"/>
+    <sheet name="test111111" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -818,4 +819,40 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>テスト日</v>
+      </c>
+      <c r="B1" t="str">
+        <v>点数</v>
+      </c>
+      <c r="C1" t="str">
+        <v>経過時間</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>202474</v>
+      </c>
+      <c r="B2" t="str">
+        <v>7/100</v>
+      </c>
+      <c r="C2" t="str">
+        <v>00:31</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
+</worksheet>
 </file>